--- a/09_Data_probands/Data_summary_all.xlsx
+++ b/09_Data_probands/Data_summary_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\OneDrive\Desktop\DSBA-M2\CRP\SensitivePen\09_Data_probands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7320000E-DCEA-4A09-8314-AF37D133D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46EFEE6-B08B-4C5B-972D-14C514A86092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'start-end lookup'!$A$1:$D$986</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$17:$E$40</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$17:$F$40</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$17:$F$40</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$17:$E$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -575,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,20 +692,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +729,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -786,7 +792,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1989,8 +1995,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3752850" y="404812"/>
-              <a:ext cx="2905125" cy="1947863"/>
+              <a:off x="4362450" y="595312"/>
+              <a:ext cx="3105150" cy="1947863"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2401,76 +2407,77 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43:I50"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21" style="8" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="46.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="8" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9" style="8" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" style="5" customWidth="1"/>
     <col min="15" max="15" width="32.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="16" width="49.28515625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2481,7 +2488,7 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="8">
@@ -2504,7 +2511,7 @@
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8">
@@ -2527,7 +2534,7 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8">
@@ -2550,7 +2557,7 @@
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8">
@@ -2573,7 +2580,7 @@
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
       <c r="D6" s="8">
@@ -2596,7 +2603,7 @@
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="8">
@@ -2619,7 +2626,7 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="8">
@@ -2639,7 +2646,7 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="8">
@@ -2662,7 +2669,7 @@
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
       <c r="D10" s="8">
@@ -2685,7 +2692,7 @@
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="8">
@@ -2701,14 +2708,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
       <c r="D12" s="8">
@@ -2724,14 +2731,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
       <c r="D13" s="8">
@@ -2743,24 +2750,24 @@
       <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <v>1000</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <v>2000</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>0</v>
       </c>
       <c r="D14" s="8"/>
@@ -2769,24 +2776,24 @@
       <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <v>1000</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <v>2400</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="8"/>
@@ -2795,24 +2802,24 @@
       <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="6">
         <v>750</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="6">
         <v>2400</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
@@ -2821,24 +2828,24 @@
       <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="6">
         <v>1000</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="6">
         <v>1650</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="8">
@@ -2854,10 +2861,10 @@
       <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J17" s="9">
@@ -2866,10 +2873,10 @@
       <c r="K17" s="9">
         <v>6500</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="6">
         <v>1000</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="6">
         <v>4800</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -2880,14 +2887,14 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
       <c r="D18" s="8">
@@ -2903,10 +2910,10 @@
       <c r="G18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="8" t="s">
         <v>155</v>
       </c>
       <c r="J18" s="9">
@@ -2915,10 +2922,10 @@
       <c r="K18" s="9">
         <v>2900</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="6">
         <v>700</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="6">
         <v>1100</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -2929,14 +2936,14 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="8">
@@ -2952,10 +2959,10 @@
       <c r="G19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J19" s="9">
@@ -2964,10 +2971,10 @@
       <c r="K19" s="9">
         <v>700</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="6">
         <v>600</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="6">
         <v>1750</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -2978,14 +2985,14 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>0</v>
       </c>
       <c r="D20" s="8">
@@ -3001,10 +3008,10 @@
       <c r="G20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="9">
@@ -3013,10 +3020,10 @@
       <c r="K20" s="9">
         <v>4000</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="6">
         <v>750</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="6">
         <v>950</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -3027,14 +3034,14 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
       <c r="D21" s="8">
@@ -3050,10 +3057,10 @@
       <c r="G21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J21" s="9">
@@ -3062,10 +3069,10 @@
       <c r="K21" s="9">
         <v>4500</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="6">
         <v>500</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
         <v>1600</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -3076,14 +3083,14 @@
       </c>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
       <c r="D22" s="8">
@@ -3099,10 +3106,10 @@
       <c r="G22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J22" s="9">
@@ -3111,10 +3118,10 @@
       <c r="K22" s="9">
         <v>7000</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="6">
         <v>1000</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="6">
         <v>2600</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -3125,14 +3132,14 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>0</v>
       </c>
       <c r="D23" s="8">
@@ -3148,10 +3155,10 @@
       <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J23" s="9">
@@ -3160,10 +3167,10 @@
       <c r="K23" s="9">
         <v>4100</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="6">
         <v>1000</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="6">
         <v>3900</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -3174,14 +3181,14 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
       <c r="D24" s="8">
@@ -3197,10 +3204,10 @@
       <c r="G24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J24" s="9">
@@ -3209,10 +3216,10 @@
       <c r="K24" s="9">
         <v>4000</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="6">
         <v>550</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="6">
         <v>2700</v>
       </c>
       <c r="N24" s="5" t="s">
@@ -3223,14 +3230,14 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>0</v>
       </c>
       <c r="D25" s="8">
@@ -3246,10 +3253,10 @@
       <c r="G25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J25" s="9">
@@ -3258,28 +3265,28 @@
       <c r="K25" s="9">
         <v>5000</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="6">
         <v>850</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="6">
         <v>2500</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="7" t="s">
         <v>162</v>
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
       <c r="D26" s="8">
@@ -3295,10 +3302,10 @@
       <c r="G26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J26" s="9">
@@ -3307,28 +3314,28 @@
       <c r="K26" s="9">
         <v>3500</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="6">
         <v>500</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="6">
         <v>1500</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" s="8">
@@ -3344,10 +3351,10 @@
       <c r="G27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J27" s="9">
@@ -3356,10 +3363,10 @@
       <c r="K27" s="9">
         <v>5000</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="6">
         <v>750</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="6">
         <v>1600</v>
       </c>
       <c r="N27" s="5" t="s">
@@ -3370,14 +3377,14 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="8">
@@ -3393,10 +3400,10 @@
       <c r="G28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J28" s="9">
@@ -3405,10 +3412,10 @@
       <c r="K28" s="9">
         <v>5000</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="6">
         <v>600</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="6">
         <v>1350</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -3419,14 +3426,14 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>0</v>
       </c>
       <c r="D29" s="8">
@@ -3442,10 +3449,10 @@
       <c r="G29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J29" s="9">
@@ -3454,10 +3461,10 @@
       <c r="K29" s="9">
         <v>4000</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="6">
         <v>400</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="6">
         <v>800</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -3468,14 +3475,14 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>0</v>
       </c>
       <c r="D30" s="8">
@@ -3491,10 +3498,10 @@
       <c r="G30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J30" s="9">
@@ -3503,10 +3510,10 @@
       <c r="K30" s="9">
         <v>3300</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="6">
         <v>300</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="6">
         <v>1500</v>
       </c>
       <c r="N30" s="5" t="s">
@@ -3517,14 +3524,14 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>0</v>
       </c>
       <c r="D31" s="8">
@@ -3536,21 +3543,21 @@
       <c r="G31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="O31" s="2"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>0</v>
       </c>
       <c r="D32" s="8">
@@ -3562,21 +3569,21 @@
       <c r="G32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="O32" s="2"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>0</v>
       </c>
       <c r="D33" s="8">
@@ -3592,10 +3599,10 @@
       <c r="G33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="8" t="s">
         <v>155</v>
       </c>
       <c r="J33" s="9">
@@ -3604,10 +3611,10 @@
       <c r="K33" s="9">
         <v>7500</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="6">
         <v>500</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="6">
         <v>4100</v>
       </c>
       <c r="N33" s="5" t="s">
@@ -3618,14 +3625,14 @@
       </c>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>0</v>
       </c>
       <c r="D34" s="8">
@@ -3641,10 +3648,10 @@
       <c r="G34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="8" t="s">
         <v>155</v>
       </c>
       <c r="J34" s="9">
@@ -3653,10 +3660,10 @@
       <c r="K34" s="9">
         <v>1600</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="6">
         <v>500</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="6">
         <v>4300</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -3667,14 +3674,14 @@
       </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="8">
         <v>0</v>
       </c>
       <c r="D35" s="8">
@@ -3690,10 +3697,10 @@
       <c r="G35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="8" t="s">
         <v>155</v>
       </c>
       <c r="J35" s="9">
@@ -3702,10 +3709,10 @@
       <c r="K35" s="9">
         <v>7000</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="6">
         <v>1300</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="6">
         <v>3100</v>
       </c>
       <c r="N35" s="5" t="s">
@@ -3716,14 +3723,14 @@
       </c>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>0</v>
       </c>
       <c r="D36" s="8">
@@ -3739,10 +3746,10 @@
       <c r="G36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J36" s="9">
@@ -3751,10 +3758,10 @@
       <c r="K36" s="9">
         <v>7000</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="6">
         <v>800</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="6">
         <v>3300</v>
       </c>
       <c r="N36" s="5" t="s">
@@ -3765,14 +3772,14 @@
       </c>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <v>0</v>
       </c>
       <c r="D37" s="8">
@@ -3788,10 +3795,10 @@
       <c r="G37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J37" s="9">
@@ -3800,10 +3807,10 @@
       <c r="K37" s="9">
         <v>7000</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="6">
         <v>500</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="6">
         <v>2200</v>
       </c>
       <c r="N37" s="5" t="s">
@@ -3814,14 +3821,14 @@
       </c>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>0</v>
       </c>
       <c r="D38" s="8">
@@ -3837,10 +3844,10 @@
       <c r="G38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J38" s="9">
@@ -3849,10 +3856,10 @@
       <c r="K38" s="9">
         <v>4000</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="6">
         <v>1700</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="6">
         <v>6200</v>
       </c>
       <c r="N38" s="5" t="s">
@@ -3863,14 +3870,14 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <v>0</v>
       </c>
       <c r="D39" s="8">
@@ -3886,10 +3893,10 @@
       <c r="G39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J39" s="9">
@@ -3898,10 +3905,10 @@
       <c r="K39" s="9">
         <v>6400</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="6">
         <v>1000</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="6">
         <v>5700</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -3912,14 +3919,14 @@
       </c>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>0</v>
       </c>
       <c r="D40" s="8">
@@ -3935,10 +3942,10 @@
       <c r="G40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="8" t="s">
         <v>155</v>
       </c>
       <c r="J40" s="9">
@@ -3947,10 +3954,10 @@
       <c r="K40" s="9">
         <v>6000</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="6">
         <v>1000</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="6">
         <v>4000</v>
       </c>
       <c r="N40" s="5" t="s">
@@ -3961,14 +3968,14 @@
       </c>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <v>0</v>
       </c>
       <c r="D41" s="8">
@@ -3980,21 +3987,21 @@
       <c r="G41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="O41" s="2"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="O41" s="7"/>
       <c r="P41" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>0</v>
       </c>
       <c r="E42" s="7"/>
@@ -4004,24 +4011,24 @@
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="O42" s="2"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="O42" s="7"/>
       <c r="P42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="8">
         <v>0</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="15">
         <v>37527</v>
       </c>
       <c r="E43" s="6">
@@ -4033,22 +4040,22 @@
       <c r="G43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="6">
         <v>400</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="6">
         <v>1550</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="6">
         <v>500</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="6">
         <v>1700</v>
       </c>
       <c r="N43" s="5" t="s">
@@ -4058,17 +4065,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="15">
         <v>35505</v>
       </c>
       <c r="E44" s="6">
@@ -4080,22 +4087,22 @@
       <c r="G44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="6">
         <v>500</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="6">
         <v>1200</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="6">
         <v>600</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="6">
         <v>1800</v>
       </c>
       <c r="N44" s="5" t="s">
@@ -4105,17 +4112,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="8">
         <v>0</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="15">
         <v>37355</v>
       </c>
       <c r="E45" s="6">
@@ -4127,22 +4134,22 @@
       <c r="G45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="6">
         <v>500</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="6">
         <v>1800</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="6">
         <v>500</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="6">
         <v>1500</v>
       </c>
       <c r="N45" s="5" t="s">
@@ -4152,17 +4159,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <v>1</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="15">
         <v>37413</v>
       </c>
       <c r="E46" s="6">
@@ -4174,16 +4181,16 @@
       <c r="G46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="6">
         <v>500</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="6">
         <v>1500</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="6">
         <v>500</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="6">
         <v>1250</v>
       </c>
       <c r="P46" s="5" t="s">
@@ -4193,17 +4200,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="8">
         <v>1</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="15">
         <v>37729</v>
       </c>
       <c r="E47" s="6">
@@ -4215,39 +4222,39 @@
       <c r="G47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="6">
         <v>500</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="6">
         <v>2000</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="6">
         <v>500</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="6">
         <v>2000</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <v>0</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="15">
         <v>37568</v>
       </c>
       <c r="E48" s="6">
@@ -4259,22 +4266,22 @@
       <c r="G48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="6">
         <v>650</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="6">
         <v>1400</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="6">
         <v>300</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="6">
         <v>850</v>
       </c>
       <c r="N48" s="5" t="s">
@@ -4284,17 +4291,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="15">
         <v>37625</v>
       </c>
       <c r="E49" s="6">
@@ -4306,22 +4313,22 @@
       <c r="G49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="6">
         <v>400</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="6">
         <v>1600</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="6">
         <v>300</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="6">
         <v>850</v>
       </c>
       <c r="N49" s="5" t="s">
@@ -4338,10 +4345,10 @@
       <c r="B50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <v>1</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="15">
         <v>37432</v>
       </c>
       <c r="E50" s="6">
@@ -4353,10 +4360,10 @@
       <c r="G50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4367,10 +4374,10 @@
       <c r="B51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="8">
         <v>1</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="15">
         <v>37095</v>
       </c>
       <c r="E51" s="6">
@@ -4390,7 +4397,7 @@
       <c r="B52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <v>1</v>
       </c>
       <c r="E52" s="6">
@@ -4399,7 +4406,7 @@
       <c r="F52" s="9">
         <v>23</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="8" t="s">
         <v>154</v>
       </c>
       <c r="P52" s="5" t="s">
@@ -4413,7 +4420,7 @@
       <c r="B53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="8">
         <v>1</v>
       </c>
       <c r="E53" s="6">
@@ -4422,7 +4429,7 @@
       <c r="F53" s="9">
         <v>4</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="8" t="s">
         <v>153</v>
       </c>
       <c r="P53" s="5" t="s">
@@ -4436,7 +4443,7 @@
       <c r="B54" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="8">
         <v>0</v>
       </c>
       <c r="E54" s="6">
@@ -4445,7 +4452,7 @@
       <c r="F54" s="9">
         <v>14</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="8" t="s">
         <v>153</v>
       </c>
       <c r="P54" s="5" t="s">
@@ -4459,7 +4466,7 @@
       <c r="B55" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="8">
         <v>0</v>
       </c>
       <c r="E55" s="6">
@@ -4468,7 +4475,7 @@
       <c r="F55" s="9">
         <v>15</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="8" t="s">
         <v>153</v>
       </c>
       <c r="P55" s="5" t="s">
@@ -4482,7 +4489,7 @@
       <c r="B56" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="8">
         <v>0</v>
       </c>
       <c r="E56" s="6">
@@ -4491,7 +4498,7 @@
       <c r="F56" s="9">
         <v>22</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="8" t="s">
         <v>154</v>
       </c>
       <c r="P56" s="5" t="s">
@@ -4505,7 +4512,7 @@
       <c r="B57" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="8">
         <v>0</v>
       </c>
       <c r="E57" s="6">
@@ -4514,7 +4521,7 @@
       <c r="F57" s="9">
         <v>14</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="8" t="s">
         <v>153</v>
       </c>
       <c r="P57" s="5" t="s">

--- a/09_Data_probands/Data_summary_all.xlsx
+++ b/09_Data_probands/Data_summary_all.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\OneDrive\Desktop\DSBA-M2\CRP\SensitivePen\09_Data_probands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46EFEE6-B08B-4C5B-972D-14C514A86092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45A15E-2E5D-4691-A097-06B9250D1584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
+    <workbookView xWindow="33900" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Age lookup" sheetId="2" r:id="rId2"/>
-    <sheet name="start-end lookup" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Age lookup" sheetId="2" r:id="rId3"/>
+    <sheet name="start-end lookup" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'start-end lookup'!$A$1:$D$986</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'start-end lookup'!$A$1:$D$986</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$17:$F$40</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$17:$E$40</definedName>
   </definedNames>
@@ -41,6 +43,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FC636F80-91FE-490B-92BD-56F605D85BE3}</author>
+    <author>tc={20314B52-DBAD-4A27-8D72-216B3648F888}</author>
+    <author>tc={8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}</author>
+    <author>tc={1417AC12-36A3-43C0-830D-967B436B0E1D}</author>
+  </authors>
+  <commentList>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    outlier: quality score &lt;5</t>
+      </text>
+    </comment>
+    <comment ref="Q36" authorId="1" shapeId="0" xr:uid="{20314B52-DBAD-4A27-8D72-216B3648F888}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    outlier (over 25 quality score)</t>
+      </text>
+    </comment>
+    <comment ref="Q39" authorId="2" shapeId="0" xr:uid="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    outlier (quality score &gt;25)</t>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="3" shapeId="0" xr:uid="{1417AC12-36A3-43C0-830D-967B436B0E1D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ages of adults have all been set equally to not include any false correlation due to chance - Generally there can be no writing quality learning effect to be expected above a certain age &lt;20
+Reply:
+    True birthdates of adult subjects:
+28.09.2002
+16.03.1997
+09.04.2002
+06.06.2002
+18.04.2003
+08.11.2002
+04.01.2003
+25.06.2002
+23.07.2001</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="166">
   <si>
@@ -546,7 +604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +631,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2029,15 +2093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2073,8 +2137,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9315450" y="642937"/>
-              <a:ext cx="4572000" cy="2438400"/>
+              <a:off x="8763000" y="585788"/>
+              <a:ext cx="3524250" cy="1862138"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2105,6 +2169,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Felix Hans" id="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" userId="912d11d3d824c173" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2402,13 +2472,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P17" dT="2022-05-20T11:09:08.85" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
+    <text>outlier: quality score &lt;5</text>
+  </threadedComment>
+  <threadedComment ref="Q36" dT="2022-05-20T11:08:06.43" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{20314B52-DBAD-4A27-8D72-216B3648F888}">
+    <text>outlier (over 25 quality score)</text>
+  </threadedComment>
+  <threadedComment ref="Q39" dT="2022-05-20T11:08:25.47" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
+    <text>outlier (quality score &gt;25)</text>
+  </threadedComment>
+  <threadedComment ref="A43" dT="2022-05-20T09:33:39.92" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{1417AC12-36A3-43C0-830D-967B436B0E1D}">
+    <text>Ages of adults have all been set equally to not include any false correlation due to chance - Generally there can be no writing quality learning effect to be expected above a certain age &lt;20</text>
+  </threadedComment>
+  <threadedComment ref="A43" dT="2022-05-20T09:33:53.56" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{21EF2139-C703-416E-BB5C-2EA6CE5A9922}" parentId="{1417AC12-36A3-43C0-830D-967B436B0E1D}">
+    <text>True birthdates of adult subjects:
+28.09.2002
+16.03.1997
+09.04.2002
+06.06.2002
+18.04.2003
+08.11.2002
+04.01.2003
+25.06.2002
+23.07.2001</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3290B4C-D5B3-44CE-BAF9-F245E59CD938}">
-  <dimension ref="A1:Q57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3290B4C-D5B3-44CE-BAF9-F245E59CD938}">
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2879,15 +2978,14 @@
       <c r="M17" s="6">
         <v>4800</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +3034,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3083,7 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3132,7 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -3083,7 +3181,7 @@
       </c>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3230,7 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3279,7 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3328,7 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3377,7 @@
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3426,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3475,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3524,7 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3573,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3622,7 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -3550,7 +3648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -3764,13 +3862,12 @@
       <c r="M36" s="6">
         <v>3300</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="Q36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3911,13 +4008,12 @@
       <c r="M39" s="6">
         <v>5700</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -4028,8 +4124,8 @@
       <c r="C43" s="8">
         <v>0</v>
       </c>
-      <c r="D43" s="15">
-        <v>37527</v>
+      <c r="D43" s="14">
+        <v>15</v>
       </c>
       <c r="E43" s="6">
         <v>699</v>
@@ -4075,8 +4171,8 @@
       <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="15">
-        <v>35505</v>
+      <c r="D44" s="14">
+        <v>15</v>
       </c>
       <c r="E44" s="6">
         <v>616</v>
@@ -4122,8 +4218,8 @@
       <c r="C45" s="8">
         <v>0</v>
       </c>
-      <c r="D45" s="15">
-        <v>37355</v>
+      <c r="D45" s="14">
+        <v>15</v>
       </c>
       <c r="E45" s="6">
         <v>538</v>
@@ -4169,8 +4265,8 @@
       <c r="C46" s="8">
         <v>1</v>
       </c>
-      <c r="D46" s="15">
-        <v>37413</v>
+      <c r="D46" s="14">
+        <v>15</v>
       </c>
       <c r="E46" s="6">
         <v>582</v>
@@ -4210,8 +4306,8 @@
       <c r="C47" s="8">
         <v>1</v>
       </c>
-      <c r="D47" s="15">
-        <v>37729</v>
+      <c r="D47" s="14">
+        <v>15</v>
       </c>
       <c r="E47" s="6">
         <v>699</v>
@@ -4254,8 +4350,8 @@
       <c r="C48" s="8">
         <v>0</v>
       </c>
-      <c r="D48" s="15">
-        <v>37568</v>
+      <c r="D48" s="14">
+        <v>15</v>
       </c>
       <c r="E48" s="6">
         <v>498</v>
@@ -4301,8 +4397,8 @@
       <c r="C49" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="15">
-        <v>37625</v>
+      <c r="D49" s="14">
+        <v>15</v>
       </c>
       <c r="E49" s="6">
         <v>509</v>
@@ -4348,8 +4444,8 @@
       <c r="C50" s="8">
         <v>1</v>
       </c>
-      <c r="D50" s="15">
-        <v>37432</v>
+      <c r="D50" s="14">
+        <v>15</v>
       </c>
       <c r="E50" s="6">
         <v>664</v>
@@ -4377,8 +4473,8 @@
       <c r="C51" s="8">
         <v>1</v>
       </c>
-      <c r="D51" s="15">
-        <v>37095</v>
+      <c r="D51" s="14">
+        <v>15</v>
       </c>
       <c r="E51" s="6">
         <v>625</v>
@@ -4389,6 +4485,7 @@
       <c r="G51" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -4409,6 +4506,7 @@
       <c r="H52" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="J52" s="15"/>
       <c r="P52" s="5" t="s">
         <v>138</v>
       </c>
@@ -4432,6 +4530,7 @@
       <c r="H53" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="J53" s="15"/>
       <c r="P53" s="5" t="s">
         <v>139</v>
       </c>
@@ -4455,6 +4554,7 @@
       <c r="H54" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="J54" s="15"/>
       <c r="P54" s="5" t="s">
         <v>140</v>
       </c>
@@ -4478,6 +4578,7 @@
       <c r="H55" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="J55" s="15"/>
       <c r="P55" s="5" t="s">
         <v>141</v>
       </c>
@@ -4501,6 +4602,7 @@
       <c r="H56" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="J56" s="15"/>
       <c r="P56" s="5" t="s">
         <v>142</v>
       </c>
@@ -4524,19 +4626,40 @@
       <c r="H57" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="J57" s="15"/>
       <c r="P57" s="5" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J59" s="15"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{E3290B4C-D5B3-44CE-BAF9-F245E59CD938}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515A6312-19F7-4C42-8D4F-732341DDA9B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A3EA4E-5190-4719-A9B9-4880F7F83E38}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -4849,7 +4972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C95E71-BF05-449E-932F-98F2F1214CD3}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D986"/>

--- a/09_Data_probands/Data_summary_all.xlsx
+++ b/09_Data_probands/Data_summary_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\OneDrive\Desktop\DSBA-M2\CRP\SensitivePen\09_Data_probands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45A15E-2E5D-4691-A097-06B9250D1584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288A1B4-5A21-456C-9D30-92AD9BF4CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>tc={1417AC12-36A3-43C0-830D-967B436B0E1D}</author>
   </authors>
   <commentList>
-    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     outlier: quality score &lt;5</t>
       </text>
     </comment>
-    <comment ref="Q36" authorId="1" shapeId="0" xr:uid="{20314B52-DBAD-4A27-8D72-216B3648F888}">
+    <comment ref="O36" authorId="1" shapeId="0" xr:uid="{20314B52-DBAD-4A27-8D72-216B3648F888}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +68,7 @@
     outlier (over 25 quality score)</t>
       </text>
     </comment>
-    <comment ref="Q39" authorId="2" shapeId="0" xr:uid="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
+    <comment ref="O39" authorId="2" shapeId="0" xr:uid="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -604,7 +604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,12 +631,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2474,13 +2468,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="P17" dT="2022-05-20T11:09:08.85" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
+  <threadedComment ref="N17" dT="2022-05-20T11:09:08.85" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{FC636F80-91FE-490B-92BD-56F605D85BE3}">
     <text>outlier: quality score &lt;5</text>
   </threadedComment>
-  <threadedComment ref="Q36" dT="2022-05-20T11:08:06.43" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{20314B52-DBAD-4A27-8D72-216B3648F888}">
+  <threadedComment ref="O36" dT="2022-05-20T11:08:06.43" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{20314B52-DBAD-4A27-8D72-216B3648F888}">
     <text>outlier (over 25 quality score)</text>
   </threadedComment>
-  <threadedComment ref="Q39" dT="2022-05-20T11:08:25.47" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
+  <threadedComment ref="O39" dT="2022-05-20T11:08:25.47" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{8DF672B1-5AA0-499E-BBCA-F90B23DF0BC1}">
     <text>outlier (quality score &gt;25)</text>
   </threadedComment>
   <threadedComment ref="A43" dT="2022-05-20T09:33:39.92" personId="{EA29A804-81E1-44BD-A0AA-C9DF3CC27318}" id="{1417AC12-36A3-43C0-830D-967B436B0E1D}">
@@ -2505,9 +2499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3290B4C-D5B3-44CE-BAF9-F245E59CD938}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,7 +2931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2978,14 +2972,14 @@
       <c r="M17" s="6">
         <v>4800</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3028,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -3083,7 +3077,7 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3126,7 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3175,7 @@
       </c>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3224,7 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3273,7 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3322,7 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3371,7 @@
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3420,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3469,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3518,7 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -3573,7 +3567,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -3622,7 +3616,7 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -3862,10 +3856,10 @@
       <c r="M36" s="6">
         <v>3300</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="O36" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4008,10 +4002,10 @@
       <c r="M39" s="6">
         <v>5700</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="O39" s="5" t="s">
         <v>76</v>
       </c>
     </row>
